--- a/MAP_Cost_Of_food_World.xlsx
+++ b/MAP_Cost_Of_food_World.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/636c0d6c8417d785/Documents/2022 Semester 2/FIT3179/FIT3179 Assignment 2 DATA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{75820ECD-4AEB-4EDD-B568-27BBE0B1C775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F2AF7D94-430F-4192-A69F-9338D2734888}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="13_ncr:1_{75820ECD-4AEB-4EDD-B568-27BBE0B1C775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{626D4D91-7E37-4900-B693-47A67AC9A8D0}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8F6EF8FB-2E2B-415D-9046-BB6411BA07DF}"/>
   </bookViews>
@@ -790,10 +790,10 @@
     </xf>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1111,8 +1111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{586EBC50-D16D-4823-ABD3-357A2B83F5E0}">
   <dimension ref="A1:F172"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H75" sqref="H75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1501,7 +1501,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="14" t="s">
         <v>8</v>
       </c>
       <c r="B20" s="12">
@@ -2584,14 +2584,14 @@
       <c r="A74" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="B74" s="14">
-        <v>0</v>
+      <c r="B74" s="15">
+        <v>1380000000</v>
       </c>
       <c r="C74" s="6">
         <v>2973190</v>
       </c>
       <c r="D74" s="7">
-        <v>0</v>
+        <v>424.79</v>
       </c>
       <c r="E74" s="11">
         <v>58.758000000000003</v>
